--- a/medicine/Enfance/Benoît_Coppée/Benoît_Coppée.xlsx
+++ b/medicine/Enfance/Benoît_Coppée/Benoît_Coppée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Copp%C3%A9e</t>
+          <t>Benoît_Coppée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benoît Coppée, né le 22 avril 1964 à Etterbeek (province de Brabant), est un romancier et scénariste belge. Il est administrateur de la SABAM. 
 Outre son travail d’écrivain pour adultes, il s’adonne à l’écriture pour la jeunesse. L’auteur aborde toutes les formes d’écriture : récit, conte, comptine, pièce de théâtre, roman, poésie ou scénario de bande dessinée. Il est l'auteur de la série jeunesse Les Aventures de Tom et Lila, avec l’illustrateur Nicolas Viot, traduite dans une vingtaine de langues.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Copp%C3%A9e</t>
+          <t>Benoît_Coppée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,20 +524,22 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benoît Coppée naît le 22 avril 1964 à Etterbeek[1], une commune bruxelloise. Il fait ses études primaires à l’école Saint-Julien d’Auderghem, humanités gréco-latines au collège Saint-Hubert de Watermael-Boitsfort. De 1982 à 1995, il travaille comme infirmier en pédiatrie, soins intensifs, et dialyse.
-En 1995, il rencontre Émile Kesteman[2] qui l’introduit au « Grenier au chansons » de Jane Tony où il croise des écrivains et poètes tels que Jean Dumortier, Joseph Bodson, Marcel Hennart ou Henry Falaise. Il devient parolier de chansons françaises et remporte le Prix de la Promotion Artistique Belge de la Société belge des auteurs, compositeurs et éditeurs[3].
-L'année suivante, il décide de vivre de sa plume et abandonne le métier d’infirmier qu’il aura exercé une douzaine d’années. Avec l’illustrateur Nicolas Viot, il crée La Plume qui s’poile, un atelier-studio d'écriture et d'illustration. En 1997, il est lauréat de plusieurs concours : Arts et Lettres de France[3], Promotion Artistique Belge de la SABAM[3], etc.
-L'année 1998 voit naître ses premières publications : Échouages et Tant de chiens!. Il remporte le premier prix du concours de nouvelles La Fureur de Lire et entre à l’Association des écrivains belges de langue française (AEB)[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benoît Coppée naît le 22 avril 1964 à Etterbeek, une commune bruxelloise. Il fait ses études primaires à l’école Saint-Julien d’Auderghem, humanités gréco-latines au collège Saint-Hubert de Watermael-Boitsfort. De 1982 à 1995, il travaille comme infirmier en pédiatrie, soins intensifs, et dialyse.
+En 1995, il rencontre Émile Kesteman qui l’introduit au « Grenier au chansons » de Jane Tony où il croise des écrivains et poètes tels que Jean Dumortier, Joseph Bodson, Marcel Hennart ou Henry Falaise. Il devient parolier de chansons françaises et remporte le Prix de la Promotion Artistique Belge de la Société belge des auteurs, compositeurs et éditeurs.
+L'année suivante, il décide de vivre de sa plume et abandonne le métier d’infirmier qu’il aura exercé une douzaine d’années. Avec l’illustrateur Nicolas Viot, il crée La Plume qui s’poile, un atelier-studio d'écriture et d'illustration. En 1997, il est lauréat de plusieurs concours : Arts et Lettres de France, Promotion Artistique Belge de la SABAM, etc.
+L'année 1998 voit naître ses premières publications : Échouages et Tant de chiens!. Il remporte le premier prix du concours de nouvelles La Fureur de Lire et entre à l’Association des écrivains belges de langue française (AEB).
 L'année suivante, il sort son premier roman, Julie, puis paraît Paroles de saisons II, un collectif de poèmes avec Joseph Bodson, Marcel Hennart et Danielle Gérard. Cette période est aussi celle de ses premières collaborations avec les Éditions Averbode où il signe des contes, récits et poésies pour enfants. Avec Nicolas Viot, il crée BD’vasion, un atelier de bande dessinée pour les détenus de la prison de Saint-Gilles à Bruxelles.
 En 2000, paraissent J’ai le droit ! avec Pascal Lemaître – portraits des droits de l’enfant en Belgique – et Graines de médiateurs avec Nicolas Viot – outil de promotion pour la communication non violente. 
 En 2001, paraissent deux romans, Bleus et De Mineurs, ce dernier étant un roman interactif qui vise à démonter les arcanes du système judiciaire jeunesse en Belgique. Cette même année, sortent ses premières publications de livres pour enfants avec Yaël Vent des Hove aux Éditions Alice. Parallèlement, aux Éditions Averbode, Coppée crée, avec Nadine Rouvière, Mic et Mouche, un héros de bande dessinée pour enfants de 3 à 5 ans. Il monte également l’exposition Équi-pages, sur les métiers d’écrivain et d’illustrateur pour enfants. 
-Il publie Secrets à dire en 2002, le premier tome des aventures de Tom et Lila avec Nicolas Viot, série qui sera traduite dans une vingtaine de langues[4]. Il publie ensuite l'ouvrage Cl@r@ au pays d’Internet avec Gilles Chemin aux Éditions Média-Animation.
+Il publie Secrets à dire en 2002, le premier tome des aventures de Tom et Lila avec Nicolas Viot, série qui sera traduite dans une vingtaine de langues. Il publie ensuite l'ouvrage Cl@r@ au pays d’Internet avec Gilles Chemin aux Éditions Média-Animation.
 En 2003, Coppée devient membre de la Charte des auteurs et illustrateurs jeunesse (Paris). Il publie avec Nicolas Viot aux Éditions Montagne à Malices, les deux premiers livres de la série Oh! Théo, un personnage qu'il avait créé l'année précédente avec Nicolas Viot, dans le journal Le Ligueur. La même année, il sort le deuxième tome des aventures de Tom et Lila.
-En 2008, il devient membre de l’Association des scénaristes de l’audiovisuel (ASA). La même année, il est lauréat d'une bourse d'aide au projet de la Fédération Wallonie-Bruxelles[3]. L'année suivante, il devient administrateur de la SABAM et succède à l'écrivain belge Pierre Coran.
+En 2008, il devient membre de l’Association des scénaristes de l’audiovisuel (ASA). La même année, il est lauréat d'une bourse d'aide au projet de la Fédération Wallonie-Bruxelles. L'année suivante, il devient administrateur de la SABAM et succède à l'écrivain belge Pierre Coran.
 En 2014, il est l'un des membres fondateurs du Guichet des Arts. Il ouvre, à Bruxelles, un Bureau d’accompagnement en projets d’écriture (fiction/biographie).
-Il apporte ses collaborations régulières à plusieurs revues[4] dont Tremplin, Dopido, Dorémi, Bonjour, Dauphin, ID et Éclat de Lire.
+Il apporte ses collaborations régulières à plusieurs revues dont Tremplin, Dopido, Dorémi, Bonjour, Dauphin, ID et Éclat de Lire.
 </t>
         </is>
       </c>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Copp%C3%A9e</t>
+          <t>Benoît_Coppée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,9 +568,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit à Bruxelles[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit à Bruxelles.
 </t>
         </is>
       </c>
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beno%C3%AEt_Copp%C3%A9e</t>
+          <t>Benoît_Coppée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,30 +601,184 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Liste des principaux ouvrages
-Publications
-Roman adulte
-Julie, Éditions Memor, Bruxelles 1999
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux ouvrages
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Roman adulte</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Julie, Éditions Memor, Bruxelles 1999
 Bleus, Memor, Bruxelles 2001
 Bruxelles-Midi Paris-Nord, Éd. Caractères, Paris 2002
-Le Silence d’Aurore, Éditions Biliki, Bruxelles, 2009
-Poésie
-Aux vitres de mon âme, Coll, Pour Haïti, Éditions Desnel, Paris, 2010
+Le Silence d’Aurore, Éditions Biliki, Bruxelles, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Aux vitres de mon âme, Coll, Pour Haïti, Éditions Desnel, Paris, 2010
 Au tour de Jacques Izoard, Collectif, Éditions Boumboumtralala, Liège, 2007
 Résonances, Collectif, Memor, Bruxelles, 2006
 Au fil des mois, Résonances d’enfance, Collectif, Éd. SGLL, Bruxelles, 2004
 Paroles de saison II, Collectif, Éditions Les Elytres, Bruxelles, 1999
-Échouages, Éditions de l’Acanthe, Namur, 1998.
-Nouvelles
-La Lettre à Constance, Éd. de l’Acanthe, Namur, 1999. Prix Fureur de Lire 1999
+Échouages, Éditions de l’Acanthe, Namur, 1998.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La Lettre à Constance, Éd. de l’Acanthe, Namur, 1999. Prix Fureur de Lire 1999
 La Passerelle, La Libre Belgique, 2003
 Sarah est partie !, Éditions Chouette Province, 2005
 Les Stabylo’s de Luz, Éditions SGLL, Bruxelles, 2010
-Entrée Plat Dessert, Éditions Libre-Court, Paris-Bruxelles, 2014
-Livre jeunesse
-Louis-Marie aime tricoter, avec Peter Elliott, Doremi, Averbode, 2013
+Entrée Plat Dessert, Éditions Libre-Court, Paris-Bruxelles, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Livre jeunesse</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Louis-Marie aime tricoter, avec Peter Elliott, Doremi, Averbode, 2013
 Tout pour le public, récit, avec Alice Bertrand, Dauphin, Averbode, 2013
 Mon amour de petite sœur, ad. Dirk Nielandt, avec Daniëlle Roothooft, Averbode, 2012
 Le Plus Beau Noël de vieux Papy Chouette, avec T Christmann, Averbode, 2011
@@ -620,7 +790,7 @@
 Ensemble !,Tom et Lila, avec Viot, CEE, mai 2006
 L’Ombre de Qin Shi, Dani le Magicien, avec A. Marnat, Éd. Vilo Jeunesse, 2006
 La Petite Porteuse d’oranges, avec Dominique Mertens, Averbode, 2006
-Dani le Magicien : Dans les griffes de Barbe Noire[5] , avec Jacques Canezza, illustrations de Annette Marnat, tour de magie par Dani Lary, Vilo Jeunesse, 2005
+Dani le Magicien : Dans les griffes de Barbe Noire , avec Jacques Canezza, illustrations de Annette Marnat, tour de magie par Dani Lary, Vilo Jeunesse, 2005
 C’est mon avion !, Oh ! Théo, avec Viot, Vilo jeunesse, Paris, 2005
 C’est pas moi !, Oh ! Théo, avec Viot, Vilo jeunesse, Paris, 2005
 La Terre brûle !,Tom et Lila, avec Viot, CEE, 2005
@@ -632,9 +802,47 @@
 Secrets à dire, avec Viot, CEE, 2002
 C’est ça la vie, avec Yaël Vent des Hove, Éd. Alice, Bruxelles, 2001  (ISBN 2930182563)
 C’est ça Nikita, avec Yaël Vent des Hove, Alice, 2001  (ISBN 2930182571)
-De Mineurs, avec Viot, Éditions Memor, 2000.
-Théâtre jeunesse
-Ce soir, c’est toi la star !, Dauphin, Averbode, 2011
+De Mineurs, avec Viot, Éditions Memor, 2000.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Théâtre jeunesse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ce soir, c’est toi la star !, Dauphin, Averbode, 2011
 Variations autour de la Boum, Dauphin, Averbode, 2010
 Le Dernier souffle de Tante Adèle, Dauphin, Averbode, 2009
 L’Arbre généalogique, Dauphin, Averbode, 2008
@@ -642,58 +850,170 @@
 Il se murmure que..., Dauphin, Averbode, 2006
 Raffut à la rédac, Dauphin, Averbode, 2006
 La Vieille Chaussette, Dauphin, Averbode, 2005
-Coup de Théâtre, Dauphin, Averbode, 2004
-Scénario bande dessinée
-Oh ! Théo, avec Nicolas Viot, in Philéas et Autobule, Éd. CAL, de 2007 à 2011
+Coup de Théâtre, Dauphin, Averbode, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Scénario bande dessinée</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Oh ! Théo, avec Nicolas Viot, in Philéas et Autobule, Éd. CAL, de 2007 à 2011
 Tsiky, avec Frédéric Thiry, Averbode, depuis 2007. Mascotte magazine Dauphin
 Ma place en classe, avec Pénélope Paicheler, Averbode, 2005
 La Vie de ma classe, avec Étienne Jung, Averbode, 2004
 Gronours et la forêt enchantée, avec Alexis Nesme, Milan, de 2002 à 2006
 Oh ! Théo, avec Nicolas Viot, Éd. Le Ligueur, de 2002 à 2007
 Mic et Mouche, avec Nadine Hahn-Rouvière, Averbode, de 2001 à 2007. Mascotte magazine Doremi
-Rémi, avec Jan Simoen et Machteld Bernaert, Averbode, 1999.
-Essais
-Et moi ? Émois ! avec Diane Drory et Nicolas Viot, Éd. Soliflor, 2013
+Rémi, avec Jan Simoen et Machteld Bernaert, Averbode, 1999.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Et moi ? Émois ! avec Diane Drory et Nicolas Viot, Éd. Soliflor, 2013
 Zéro est arrivé ! avec Diane Drory et Nicolas Viot, Soliflor, 2009
 La famille idéale ment ! avec Diane Drory et Nicolas Viot, Soliflor, 2008
 Un père pour quoi faire ? avec Diane Drory et Nicolas Viot, Soliflor, 2007
-J'veux d'l'Amour avec Diane Drory et Nicolas Viot, Soliflor, 2006.
-Discographie
-Hors Format, album chanson française avec Albert Delchambre[6], 2014 
+J'veux d'l'Amour avec Diane Drory et Nicolas Viot, Soliflor, 2006.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Discographie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Hors Format, album chanson française avec Albert Delchambre, 2014 
 Sortir de moi, album chanson française, 3 titres, par Guy Richer, Québec, 2010</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Beno%C3%AEt_Copp%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Benoît_Coppée</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beno%C3%AEt_Copp%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lauréat Promotion artistique belge de la SABAM[3] (parolier 1995) ;
-Lauréat Arts et Lettres de France[3] (poésie 1997) ;
-Lauréat Promotion artistique belge de la SABAM[3] (scénariste 1997) ;
-Lauréat Fureur de Lire (nouvelle 1998)[3] ;
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lauréat Promotion artistique belge de la SABAM (parolier 1995) ;
+Lauréat Arts et Lettres de France (poésie 1997) ;
+Lauréat Promotion artistique belge de la SABAM (scénariste 1997) ;
+Lauréat Fureur de Lire (nouvelle 1998) ;
 Finaliste Prix Gros Sel (livre jeunesse 2007) ;</t>
         </is>
       </c>
